--- a/WIP/Users/LinhNH/VEAZY_Database Design.xlsx
+++ b/WIP/Users/LinhNH/VEAZY_Database Design.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9735"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9735" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="List database tables" sheetId="2" r:id="rId1"/>
+    <sheet name="Detail Design" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -23,8 +24,43 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Hoang Linh</author>
+  </authors>
+  <commentList>
+    <comment ref="A104" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Hoang Linh:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+khi đang review thì lưu question vào đâu?
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="165">
   <si>
     <t>Collections</t>
   </si>
@@ -83,12 +119,6 @@
     <t>This store display name of user</t>
   </si>
   <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>Raw password</t>
-  </si>
-  <si>
     <t>encrypted_password</t>
   </si>
   <si>
@@ -113,15 +143,9 @@
     <t>Like Facebook</t>
   </si>
   <si>
-    <t>user_login_method</t>
-  </si>
-  <si>
     <t>int</t>
   </si>
   <si>
-    <t>This field provide login method for each user. It can not be changed</t>
-  </si>
-  <si>
     <t>long</t>
   </si>
   <si>
@@ -146,12 +170,6 @@
     <t>delete_flag</t>
   </si>
   <si>
-    <t>1: Email | 2: Facebook | 3: Google</t>
-  </si>
-  <si>
-    <t>This field store user's password. If user login by email, it must be not NULL. When user login by facebook or G+  it can be NULL.</t>
-  </si>
-  <si>
     <t>This field store user's encrypted password. If user login by email, it must be not NULL. When user login by facebook or G+  it can be NULL.</t>
   </si>
   <si>
@@ -195,13 +213,355 @@
   </si>
   <si>
     <t>When user is banned. this field is true. When user is unbanned, this field is true.</t>
+  </si>
+  <si>
+    <t>message</t>
+  </si>
+  <si>
+    <t>This collection store all information of message</t>
+  </si>
+  <si>
+    <t>content</t>
+  </si>
+  <si>
+    <t>content of message</t>
+  </si>
+  <si>
+    <t>receiver_id</t>
+  </si>
+  <si>
+    <t>is_read</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>false: not read | true: read</t>
+  </si>
+  <si>
+    <t>receiver ID</t>
+  </si>
+  <si>
+    <t>sender ID</t>
+  </si>
+  <si>
+    <t>This field store message content.</t>
+  </si>
+  <si>
+    <t>sender_id</t>
+  </si>
+  <si>
+    <t>This store user ID of the sender</t>
+  </si>
+  <si>
+    <t>This store user ID of the receiver</t>
+  </si>
+  <si>
+    <t>This field store message type.</t>
+  </si>
+  <si>
+    <t>1: report | 2: task  | 3: notification</t>
+  </si>
+  <si>
+    <t>User first name</t>
+  </si>
+  <si>
+    <t>User last name</t>
+  </si>
+  <si>
+    <t>User date of birth</t>
+  </si>
+  <si>
+    <t>lesson</t>
+  </si>
+  <si>
+    <t>This collection store all information of lesson</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>index of lesson in a course</t>
+  </si>
+  <si>
+    <t>This field store lesson index.</t>
+  </si>
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t>course</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>This field store lesson state.</t>
+  </si>
+  <si>
+    <t>current published version of lesson</t>
+  </si>
+  <si>
+    <t>This field store current published version of lesson.</t>
+  </si>
+  <si>
+    <t>This field store status whether lesson is read by receiver or not</t>
+  </si>
+  <si>
+    <t>It will have value if message is deleted</t>
+  </si>
+  <si>
+    <t>When message is created, this field is false. When message is deleted, this field is true.</t>
+  </si>
+  <si>
+    <t>It store create date of each lesson, It can not be changed</t>
+  </si>
+  <si>
+    <t>It store last update date of each lesson. It will be change when lesson update information.</t>
+  </si>
+  <si>
+    <t>It will have value if lesson is deleted</t>
+  </si>
+  <si>
+    <t>When lesson is created, this field is false. When lesson is deleted, this field is true.</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>This field store test type.</t>
+  </si>
+  <si>
+    <t>It will have value if test is deleted</t>
+  </si>
+  <si>
+    <t>When test is created, this field is false. When test is deleted, this field is true.</t>
+  </si>
+  <si>
+    <t>user_id</t>
+  </si>
+  <si>
+    <t>Id of user did this test</t>
+  </si>
+  <si>
+    <t>This field store ID of the user who did this test.</t>
+  </si>
+  <si>
+    <t>question_id</t>
+  </si>
+  <si>
+    <t>List string</t>
+  </si>
+  <si>
+    <t>list of question in the test</t>
+  </si>
+  <si>
+    <t>user_answer</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>result</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>user answer</t>
+  </si>
+  <si>
+    <t>user result with 2 digit precise</t>
+  </si>
+  <si>
+    <t>user_answers</t>
+  </si>
+  <si>
+    <t>list_questions</t>
+  </si>
+  <si>
+    <t>It store create date of each message It can not be changed</t>
+  </si>
+  <si>
+    <t>It store last update date of each mesaage. It will be change when message update information.</t>
+  </si>
+  <si>
+    <t>It store create date of each test. It can not be changed</t>
+  </si>
+  <si>
+    <t>It store last update date of each test. It will be change when test update information.</t>
+  </si>
+  <si>
+    <t>question</t>
+  </si>
+  <si>
+    <t>This collection store all information of question</t>
+  </si>
+  <si>
+    <t>This field store question state.</t>
+  </si>
+  <si>
+    <t>It store create date of each question, It can not be changed</t>
+  </si>
+  <si>
+    <t>It store last update date of each question. It will be change when question update information.</t>
+  </si>
+  <si>
+    <t>It will have value if question is deleted</t>
+  </si>
+  <si>
+    <t>When question is created, this field is false. When question is deleted, this field is true.</t>
+  </si>
+  <si>
+    <t>This field is create automatically by mongo database. It is lesson ID and each lesson has a special ID. It can not be changed.</t>
+  </si>
+  <si>
+    <t>This field is create automatically by mongo database. It is question ID and each question has a special ID. It can not be changed.</t>
+  </si>
+  <si>
+    <t>This field is create automatically by mongo database. It is test ID and each test has a special ID. It can not be changed.</t>
+  </si>
+  <si>
+    <t>This field is create automatically by mongo database. It is message ID and each message has a special ID. It can not be changed.</t>
+  </si>
+  <si>
+    <t>question_code</t>
+  </si>
+  <si>
+    <t>code of question</t>
+  </si>
+  <si>
+    <t>This field store question code. It is specially used for user to search question via code. It also contains prefix which allows user to know question type anh skill</t>
+  </si>
+  <si>
+    <t>question_type</t>
+  </si>
+  <si>
+    <t>question_skill</t>
+  </si>
+  <si>
+    <t>list String</t>
+  </si>
+  <si>
+    <t>This field store current skill of question.</t>
+  </si>
+  <si>
+    <t>1: singular | 2: group</t>
+  </si>
+  <si>
+    <t>question_quantity</t>
+  </si>
+  <si>
+    <t>This store question type. Group question contains multiple singular question</t>
+  </si>
+  <si>
+    <t>number of questions in content</t>
+  </si>
+  <si>
+    <t>creator_id</t>
+  </si>
+  <si>
+    <t>the creator ID</t>
+  </si>
+  <si>
+    <t>This field store creator ID</t>
+  </si>
+  <si>
+    <t>attachment</t>
+  </si>
+  <si>
+    <t>file url</t>
+  </si>
+  <si>
+    <t>1: vocabulary | 2: grammar | 3: reading | 4: listening</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>shared_infomation</t>
+  </si>
+  <si>
+    <t>question_detail</t>
+  </si>
+  <si>
+    <t>answers</t>
+  </si>
+  <si>
+    <t>answer</t>
+  </si>
+  <si>
+    <t>is_right</t>
+  </si>
+  <si>
+    <t>1: multiple choice</t>
+  </si>
+  <si>
+    <t>question_answer_type</t>
+  </si>
+  <si>
+    <t>This field store type of question and answer type. Currently the system only support multiple choice type</t>
+  </si>
+  <si>
+    <t>This field store question general information</t>
+  </si>
+  <si>
+    <t>false: answer is incorrect | true: answer is correct</t>
+  </si>
+  <si>
+    <t>answer content</t>
+  </si>
+  <si>
+    <t>question content</t>
+  </si>
+  <si>
+    <t>This field store the content of answer which user choosed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1: published | 2: updating </t>
+  </si>
+  <si>
+    <t>question_version</t>
+  </si>
+  <si>
+    <t>This collection store all information of version of a question</t>
+  </si>
+  <si>
+    <t>is_updating</t>
+  </si>
+  <si>
+    <t>false: is not updating | true: is updating</t>
+  </si>
+  <si>
+    <t>1: published | 2: updating  | 3: reviewng</t>
+  </si>
+  <si>
+    <t>This field store current existing version of a question. A question can has atmost 2 version 1 is published and 1 is updating or reviewing. A question ALWAYS has a published version.</t>
+  </si>
+  <si>
+    <t>This collection store all information of test which system generated in the past</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Database Table Name</t>
+  </si>
+  <si>
+    <t>lesson_version</t>
+  </si>
+  <si>
+    <t>course of lesson ID</t>
+  </si>
+  <si>
+    <t>This store course ID which lesson belong to</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -228,8 +588,21 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -245,6 +618,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFB7DEE8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -433,7 +818,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -444,6 +829,93 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -453,35 +925,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -763,48 +1208,166 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:K22"/>
+  <dimension ref="B2:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="21.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K104"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A65" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="18.28515625" customWidth="1"/>
     <col min="3" max="3" width="21.140625" customWidth="1"/>
-    <col min="8" max="8" width="8.42578125" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" customWidth="1"/>
+    <col min="5" max="5" width="20.42578125" customWidth="1"/>
+    <col min="7" max="7" width="5" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" customWidth="1"/>
     <col min="9" max="9" width="22" customWidth="1"/>
     <col min="10" max="10" width="29" customWidth="1"/>
     <col min="11" max="11" width="51.5703125" customWidth="1"/>
     <col min="12" max="12" width="70" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="8" t="s">
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:11" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="10" t="s">
+    <row r="3" spans="1:11" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="1"/>
@@ -815,12 +1378,12 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="12"/>
+    <row r="4" spans="1:11" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="9"/>
       <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
@@ -837,12 +1400,12 @@
       <c r="J4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="K4" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:11" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="12"/>
+    <row r="5" spans="1:11" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="9"/>
       <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
@@ -857,12 +1420,12 @@
       <c r="J5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="11" t="s">
+      <c r="K5" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="12"/>
+    <row r="6" spans="1:11" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="9"/>
       <c r="C6" s="2" t="s">
         <v>16</v>
       </c>
@@ -877,12 +1440,12 @@
       <c r="J6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K6" s="11" t="s">
+      <c r="K6" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="2:11" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="12"/>
+    <row r="7" spans="1:11" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="9"/>
       <c r="C7" s="2" t="s">
         <v>19</v>
       </c>
@@ -897,12 +1460,12 @@
       <c r="J7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K7" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="12"/>
+      <c r="K7" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="9"/>
       <c r="C8" s="2" t="s">
         <v>21</v>
       </c>
@@ -917,14 +1480,14 @@
       <c r="J8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K8" s="11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="12"/>
+      <c r="K8" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="9"/>
       <c r="C9" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -935,16 +1498,16 @@
         <v>13</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K9" s="11" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="10" spans="2:11" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="12"/>
+      <c r="K9" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="9"/>
       <c r="C10" s="2" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -955,16 +1518,14 @@
         <v>13</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K10" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="12"/>
+        <v>67</v>
+      </c>
+      <c r="K10" s="8"/>
+    </row>
+    <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="9"/>
       <c r="C11" s="2" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -972,19 +1533,17 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="2" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K11" s="11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="12"/>
+        <v>68</v>
+      </c>
+      <c r="K11" s="8"/>
+    </row>
+    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="9"/>
       <c r="C12" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -992,15 +1551,17 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J12" s="2"/>
-      <c r="K12" s="11"/>
-    </row>
-    <row r="13" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="12"/>
+        <v>28</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="K12" s="8"/>
+    </row>
+    <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="9"/>
       <c r="C13" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -1010,13 +1571,15 @@
       <c r="I13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J13" s="2"/>
-      <c r="K13" s="11"/>
-    </row>
-    <row r="14" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="12"/>
+      <c r="J13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K13" s="8"/>
+    </row>
+    <row r="14" spans="1:11" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="9"/>
       <c r="C14" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -1024,15 +1587,17 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J14" s="2"/>
-      <c r="K14" s="11"/>
-    </row>
-    <row r="15" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="12"/>
+        <v>27</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K14" s="8"/>
+    </row>
+    <row r="15" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="9"/>
       <c r="C15" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -1042,15 +1607,13 @@
       <c r="I15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J15" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="K15" s="11"/>
-    </row>
-    <row r="16" spans="2:11" ht="30" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="12"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="8"/>
+    </row>
+    <row r="16" spans="1:11" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="9"/>
       <c r="C16" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -1058,17 +1621,19 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="2" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="K16" s="11"/>
-    </row>
-    <row r="17" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="12"/>
+      <c r="K16" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="9"/>
       <c r="C17" s="2" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -1076,15 +1641,17 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J17" s="2"/>
-      <c r="K17" s="11"/>
-    </row>
-    <row r="18" spans="2:11" ht="30" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="12"/>
+        <v>28</v>
+      </c>
+      <c r="J17" s="1"/>
+      <c r="K17" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="9"/>
       <c r="C18" s="2" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -1092,17 +1659,15 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="K18" s="11" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="12"/>
+        <v>28</v>
+      </c>
+      <c r="J18" s="1"/>
+      <c r="K18" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="9"/>
       <c r="C19" s="2" t="s">
         <v>33</v>
       </c>
@@ -1112,74 +1677,1357 @@
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J19" s="1"/>
-      <c r="K19" s="11" t="s">
+      <c r="K19" s="8" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="2:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="12"/>
-      <c r="C20" s="2" t="s">
+    <row r="20" spans="1:11" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="10"/>
+      <c r="C20" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J20" s="1"/>
-      <c r="K20" s="11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="12"/>
-      <c r="C21" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J21" s="1"/>
-      <c r="K21" s="11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" ht="30" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="13"/>
-      <c r="C22" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="14" t="s">
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="J20" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="K20" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="K22" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="J22" s="14" t="s">
+    </row>
+    <row r="24" spans="1:11" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="26"/>
+      <c r="C24" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="I24" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="J24" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="K24" s="25" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="26"/>
+      <c r="C25" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="J25" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="K22" s="16" t="s">
+      <c r="K25" s="25" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="26"/>
+      <c r="C26" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="J26" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="K26" s="25" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="26"/>
+      <c r="C27" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="J27" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="K27" s="25" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="26"/>
+      <c r="C28" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="J28" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="K28" s="25" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="26"/>
+      <c r="C29" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="J29" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="K29" s="25"/>
+    </row>
+    <row r="30" spans="1:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="26"/>
+      <c r="C30" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="J30" s="24"/>
+      <c r="K30" s="25" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="26"/>
+      <c r="C31" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="J31" s="24"/>
+      <c r="K31" s="25" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="26"/>
+      <c r="C32" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="24"/>
+      <c r="I32" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="J32" s="24"/>
+      <c r="K32" s="25" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="28"/>
+      <c r="C33" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="D33" s="30"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="J33" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="K33" s="31" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="35" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>3</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="D35" s="34"/>
+      <c r="E35" s="34"/>
+      <c r="F35" s="34"/>
+      <c r="G35" s="35"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="J35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="K35" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="15"/>
+      <c r="K36" s="16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="17"/>
+      <c r="C37" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="I37" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="J37" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="K37" s="16" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="17"/>
+      <c r="C38" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="15"/>
+      <c r="I38" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="J38" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="K38" s="16" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="17"/>
+      <c r="C39" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="15"/>
+      <c r="I39" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="J39" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="K39" s="16" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="17"/>
+      <c r="C40" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="15"/>
+      <c r="I40" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="J40" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="K40" s="16" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="17"/>
+      <c r="C41" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="15"/>
+      <c r="H41" s="15"/>
+      <c r="I41" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="J41" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="K41" s="16" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="17"/>
+      <c r="C42" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="15"/>
+      <c r="H42" s="15"/>
+      <c r="I42" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="J42" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="K42" s="16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="17"/>
+      <c r="C43" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="15"/>
+      <c r="H43" s="15"/>
+      <c r="I43" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="J43" s="15"/>
+      <c r="K43" s="16" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="17"/>
+      <c r="C44" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D44" s="15"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="15"/>
+      <c r="H44" s="15"/>
+      <c r="I44" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="J44" s="15"/>
+      <c r="K44" s="16" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="17"/>
+      <c r="C45" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D45" s="15"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="15"/>
+      <c r="G45" s="15"/>
+      <c r="H45" s="15"/>
+      <c r="I45" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="J45" s="15"/>
+      <c r="K45" s="16" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="19"/>
+      <c r="C46" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D46" s="21"/>
+      <c r="E46" s="21"/>
+      <c r="F46" s="21"/>
+      <c r="G46" s="21"/>
+      <c r="H46" s="21"/>
+      <c r="I46" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="J46" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="K46" s="22" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>4</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C48" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="D48" s="34"/>
+      <c r="E48" s="34"/>
+      <c r="F48" s="34"/>
+      <c r="G48" s="35"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="J48" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="K48" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="C49" s="24"/>
+      <c r="D49" s="24"/>
+      <c r="E49" s="24"/>
+      <c r="F49" s="24"/>
+      <c r="G49" s="24"/>
+      <c r="H49" s="24"/>
+      <c r="I49" s="24"/>
+      <c r="J49" s="24"/>
+      <c r="K49" s="25" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="26"/>
+      <c r="C50" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="D50" s="24"/>
+      <c r="E50" s="24"/>
+      <c r="F50" s="24"/>
+      <c r="G50" s="24"/>
+      <c r="H50" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="I50" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="J50" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="K50" s="25" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="26"/>
+      <c r="C51" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="D51" s="24"/>
+      <c r="E51" s="24"/>
+      <c r="F51" s="24"/>
+      <c r="G51" s="24"/>
+      <c r="H51" s="24"/>
+      <c r="I51" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="J51" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="K51" s="25" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="26"/>
+      <c r="C52" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="D52" s="15"/>
+      <c r="E52" s="15"/>
+      <c r="F52" s="15"/>
+      <c r="G52" s="15"/>
+      <c r="H52" s="15"/>
+      <c r="I52" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="J52" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="K52" s="16" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="26"/>
+      <c r="C53" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="D53" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="E53" s="24"/>
+      <c r="F53" s="24"/>
+      <c r="G53" s="24"/>
+      <c r="H53" s="24"/>
+      <c r="I53" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="J53" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="K53" s="25" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="26"/>
+      <c r="C54" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="D54" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="E54" s="24"/>
+      <c r="F54" s="24"/>
+      <c r="G54" s="24"/>
+      <c r="H54" s="24"/>
+      <c r="I54" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="J54" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="K54" s="25" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="26"/>
+      <c r="C55" s="27"/>
+      <c r="D55" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="E55" s="24"/>
+      <c r="F55" s="24"/>
+      <c r="G55" s="24"/>
+      <c r="H55" s="24"/>
+      <c r="I55" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="J55" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="K55" s="25" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="26"/>
+      <c r="C56" s="27"/>
+      <c r="D56" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="E56" s="24"/>
+      <c r="F56" s="24"/>
+      <c r="G56" s="24"/>
+      <c r="H56" s="24"/>
+      <c r="I56" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="J56" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="K56" s="25" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="26"/>
+      <c r="C57" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="D57" s="24"/>
+      <c r="E57" s="24"/>
+      <c r="F57" s="24"/>
+      <c r="G57" s="24"/>
+      <c r="H57" s="24"/>
+      <c r="I57" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="J57" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="K57" s="25"/>
+    </row>
+    <row r="58" spans="1:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="26"/>
+      <c r="C58" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="D58" s="24"/>
+      <c r="E58" s="24"/>
+      <c r="F58" s="24"/>
+      <c r="G58" s="24"/>
+      <c r="H58" s="24"/>
+      <c r="I58" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="J58" s="24"/>
+      <c r="K58" s="25" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="26"/>
+      <c r="C59" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="D59" s="24"/>
+      <c r="E59" s="24"/>
+      <c r="F59" s="24"/>
+      <c r="G59" s="24"/>
+      <c r="H59" s="24"/>
+      <c r="I59" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="J59" s="24"/>
+      <c r="K59" s="25" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="26"/>
+      <c r="C60" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="D60" s="24"/>
+      <c r="E60" s="24"/>
+      <c r="F60" s="24"/>
+      <c r="G60" s="24"/>
+      <c r="H60" s="24"/>
+      <c r="I60" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="J60" s="24"/>
+      <c r="K60" s="25" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="28"/>
+      <c r="C61" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="D61" s="30"/>
+      <c r="E61" s="30"/>
+      <c r="F61" s="30"/>
+      <c r="G61" s="30"/>
+      <c r="H61" s="30"/>
+      <c r="I61" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="J61" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="K61" s="31" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="63" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>5</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C63" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="D63" s="34"/>
+      <c r="E63" s="34"/>
+      <c r="F63" s="34"/>
+      <c r="G63" s="35"/>
+      <c r="H63" s="4"/>
+      <c r="I63" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="J63" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="K63" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="C64" s="15"/>
+      <c r="D64" s="15"/>
+      <c r="E64" s="15"/>
+      <c r="F64" s="15"/>
+      <c r="G64" s="15"/>
+      <c r="H64" s="15"/>
+      <c r="I64" s="15"/>
+      <c r="J64" s="15"/>
+      <c r="K64" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="17"/>
+      <c r="C65" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D65" s="15"/>
+      <c r="E65" s="15"/>
+      <c r="F65" s="15"/>
+      <c r="G65" s="15"/>
+      <c r="H65" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="I65" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="J65" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="K65" s="16" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B66" s="17"/>
+      <c r="C66" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="D66" s="15"/>
+      <c r="E66" s="15"/>
+      <c r="F66" s="15"/>
+      <c r="G66" s="15"/>
+      <c r="H66" s="15"/>
+      <c r="I66" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="J66" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="K66" s="16" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B67" s="17"/>
+      <c r="C67" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="D67" s="15"/>
+      <c r="E67" s="15"/>
+      <c r="F67" s="15"/>
+      <c r="G67" s="15"/>
+      <c r="H67" s="15"/>
+      <c r="I67" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="J67" s="32" t="s">
+        <v>156</v>
+      </c>
+      <c r="K67" s="16"/>
+    </row>
+    <row r="68" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B68" s="17"/>
+      <c r="C68" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="D68" s="15"/>
+      <c r="E68" s="15"/>
+      <c r="F68" s="15"/>
+      <c r="G68" s="15"/>
+      <c r="H68" s="15"/>
+      <c r="I68" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="J68" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="K68" s="16" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B69" s="17"/>
+      <c r="C69" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D69" s="15"/>
+      <c r="E69" s="15"/>
+      <c r="F69" s="15"/>
+      <c r="G69" s="15"/>
+      <c r="H69" s="15"/>
+      <c r="I69" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="J69" s="15"/>
+      <c r="K69" s="16" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B70" s="17"/>
+      <c r="C70" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D70" s="15"/>
+      <c r="E70" s="15"/>
+      <c r="F70" s="15"/>
+      <c r="G70" s="15"/>
+      <c r="H70" s="15"/>
+      <c r="I70" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="J70" s="15"/>
+      <c r="K70" s="16" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B71" s="17"/>
+      <c r="C71" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D71" s="15"/>
+      <c r="E71" s="15"/>
+      <c r="F71" s="15"/>
+      <c r="G71" s="15"/>
+      <c r="H71" s="15"/>
+      <c r="I71" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="J71" s="15"/>
+      <c r="K71" s="16" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B72" s="19"/>
+      <c r="C72" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D72" s="21"/>
+      <c r="E72" s="21"/>
+      <c r="F72" s="21"/>
+      <c r="G72" s="21"/>
+      <c r="H72" s="21"/>
+      <c r="I72" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="J72" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="K72" s="22" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="74" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>6</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C74" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="D74" s="34"/>
+      <c r="E74" s="34"/>
+      <c r="F74" s="34"/>
+      <c r="G74" s="35"/>
+      <c r="H74" s="4"/>
+      <c r="I74" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="J74" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="K74" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B75" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="C75" s="24"/>
+      <c r="D75" s="24"/>
+      <c r="E75" s="24"/>
+      <c r="F75" s="24"/>
+      <c r="G75" s="24"/>
+      <c r="H75" s="24"/>
+      <c r="I75" s="24"/>
+      <c r="J75" s="24"/>
+      <c r="K75" s="25" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B76" s="26"/>
+      <c r="C76" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="D76" s="24"/>
+      <c r="E76" s="24"/>
+      <c r="F76" s="24"/>
+      <c r="G76" s="24"/>
+      <c r="H76" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="I76" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="J76" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="K76" s="25" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B77" s="26"/>
+      <c r="C77" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="D77" s="24"/>
+      <c r="E77" s="24"/>
+      <c r="F77" s="24"/>
+      <c r="G77" s="24"/>
+      <c r="H77" s="24"/>
+      <c r="I77" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="J77" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="K77" s="25" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B78" s="26"/>
+      <c r="C78" s="27" t="s">
+        <v>153</v>
+      </c>
+      <c r="D78" s="24"/>
+      <c r="E78" s="24"/>
+      <c r="F78" s="24"/>
+      <c r="G78" s="24"/>
+      <c r="H78" s="24"/>
+      <c r="I78" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="J78" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="K78" s="25" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B79" s="26"/>
+      <c r="C79" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="D79" s="24"/>
+      <c r="E79" s="27"/>
+      <c r="F79" s="24"/>
+      <c r="G79" s="24"/>
+      <c r="H79" s="24"/>
+      <c r="I79" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="J79" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="K79" s="25" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B80" s="26"/>
+      <c r="C80" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="D80" s="24"/>
+      <c r="E80" s="24"/>
+      <c r="F80" s="24"/>
+      <c r="G80" s="24"/>
+      <c r="H80" s="24"/>
+      <c r="I80" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="J80" s="27"/>
+      <c r="K80" s="25" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="81" spans="2:11" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B81" s="26"/>
+      <c r="C81" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="D81" s="24"/>
+      <c r="E81" s="24"/>
+      <c r="F81" s="24"/>
+      <c r="G81" s="24"/>
+      <c r="H81" s="24"/>
+      <c r="I81" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="J81" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="K81" s="25" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="82" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B82" s="26"/>
+      <c r="C82" s="27"/>
+      <c r="D82" s="24"/>
+      <c r="E82" s="24"/>
+      <c r="F82" s="24"/>
+      <c r="G82" s="24"/>
+      <c r="H82" s="24"/>
+      <c r="I82" s="27"/>
+      <c r="J82" s="27"/>
+      <c r="K82" s="25"/>
+    </row>
+    <row r="83" spans="2:11" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B83" s="26"/>
+      <c r="C83" s="27" t="s">
         <v>53</v>
       </c>
+      <c r="D83" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="E83" s="24"/>
+      <c r="F83" s="24"/>
+      <c r="G83" s="24"/>
+      <c r="H83" s="24"/>
+      <c r="I83" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="J83" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="K83" s="25" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="84" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B84" s="26"/>
+      <c r="C84" s="27"/>
+      <c r="D84" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="E84" s="24"/>
+      <c r="F84" s="24"/>
+      <c r="G84" s="24"/>
+      <c r="H84" s="24"/>
+      <c r="I84" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="J84" s="27"/>
+      <c r="K84" s="25" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="85" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B85" s="26"/>
+      <c r="C85" s="27"/>
+      <c r="D85" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="E85" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="F85" s="24"/>
+      <c r="G85" s="24"/>
+      <c r="H85" s="24"/>
+      <c r="I85" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="J85" s="27"/>
+      <c r="K85" s="25"/>
+    </row>
+    <row r="86" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B86" s="26"/>
+      <c r="C86" s="27"/>
+      <c r="D86" s="24"/>
+      <c r="E86" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="F86" s="24"/>
+      <c r="G86" s="24"/>
+      <c r="H86" s="24"/>
+      <c r="I86" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="J86" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="K86" s="25"/>
+    </row>
+    <row r="87" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B87" s="26"/>
+      <c r="C87" s="27"/>
+      <c r="D87" s="24"/>
+      <c r="E87" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="F87" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="G87" s="24"/>
+      <c r="H87" s="24"/>
+      <c r="I87" s="27"/>
+      <c r="J87" s="27"/>
+      <c r="K87" s="25"/>
+    </row>
+    <row r="88" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B88" s="26"/>
+      <c r="C88" s="27"/>
+      <c r="D88" s="24"/>
+      <c r="E88" s="24"/>
+      <c r="F88" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="G88" s="24"/>
+      <c r="H88" s="24"/>
+      <c r="I88" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="J88" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="K88" s="25"/>
+    </row>
+    <row r="89" spans="2:11" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B89" s="26"/>
+      <c r="C89" s="27"/>
+      <c r="D89" s="24"/>
+      <c r="E89" s="24"/>
+      <c r="F89" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="G89" s="24"/>
+      <c r="H89" s="24"/>
+      <c r="I89" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="J89" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="K89" s="25"/>
+    </row>
+    <row r="90" spans="2:11" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B90" s="26"/>
+      <c r="C90" s="27"/>
+      <c r="D90" s="24"/>
+      <c r="E90" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="F90" s="24"/>
+      <c r="G90" s="24"/>
+      <c r="H90" s="24"/>
+      <c r="I90" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="J90" s="36" t="s">
+        <v>144</v>
+      </c>
+      <c r="K90" s="25" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="91" spans="2:11" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B91" s="26"/>
+      <c r="C91" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="D91" s="24"/>
+      <c r="E91" s="24"/>
+      <c r="F91" s="24"/>
+      <c r="G91" s="24"/>
+      <c r="H91" s="24"/>
+      <c r="I91" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="J91" s="36" t="s">
+        <v>152</v>
+      </c>
+      <c r="K91" s="25"/>
+    </row>
+    <row r="92" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B92" s="26"/>
+      <c r="C92" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="D92" s="24"/>
+      <c r="E92" s="24"/>
+      <c r="F92" s="24"/>
+      <c r="G92" s="24"/>
+      <c r="H92" s="24"/>
+      <c r="I92" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="J92" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="K92" s="25"/>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>138</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="6">
+    <mergeCell ref="C74:G74"/>
     <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="C63:G63"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/WIP/Users/LinhNH/VEAZY_Database Design.xlsx
+++ b/WIP/Users/LinhNH/VEAZY_Database Design.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9735" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9735"/>
   </bookViews>
   <sheets>
     <sheet name="List database tables" sheetId="2" r:id="rId1"/>
@@ -916,6 +916,9 @@
     <xf numFmtId="20" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="20" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -924,9 +927,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1210,7 +1210,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -1322,7 +1322,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A145" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
@@ -1348,13 +1348,13 @@
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="36"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5" t="s">
         <v>2</v>
@@ -1712,13 +1712,13 @@
       <c r="B22" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C22" s="33" t="s">
+      <c r="C22" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="D22" s="34"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="35"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="36"/>
       <c r="H22" s="4"/>
       <c r="I22" s="5" t="s">
         <v>2</v>
@@ -1948,13 +1948,13 @@
       <c r="B35" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C35" s="33" t="s">
+      <c r="C35" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="D35" s="34"/>
-      <c r="E35" s="34"/>
-      <c r="F35" s="34"/>
-      <c r="G35" s="35"/>
+      <c r="D35" s="35"/>
+      <c r="E35" s="35"/>
+      <c r="F35" s="35"/>
+      <c r="G35" s="36"/>
       <c r="H35" s="4"/>
       <c r="I35" s="5" t="s">
         <v>2</v>
@@ -2186,13 +2186,13 @@
       <c r="B48" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C48" s="33" t="s">
+      <c r="C48" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="D48" s="34"/>
-      <c r="E48" s="34"/>
-      <c r="F48" s="34"/>
-      <c r="G48" s="35"/>
+      <c r="D48" s="35"/>
+      <c r="E48" s="35"/>
+      <c r="F48" s="35"/>
+      <c r="G48" s="36"/>
       <c r="H48" s="4"/>
       <c r="I48" s="5" t="s">
         <v>2</v>
@@ -2466,13 +2466,13 @@
       <c r="B63" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C63" s="33" t="s">
+      <c r="C63" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="D63" s="34"/>
-      <c r="E63" s="34"/>
-      <c r="F63" s="34"/>
-      <c r="G63" s="35"/>
+      <c r="D63" s="35"/>
+      <c r="E63" s="35"/>
+      <c r="F63" s="35"/>
+      <c r="G63" s="36"/>
       <c r="H63" s="4"/>
       <c r="I63" s="5" t="s">
         <v>2</v>
@@ -2662,13 +2662,13 @@
       <c r="B74" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C74" s="33" t="s">
+      <c r="C74" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="D74" s="34"/>
-      <c r="E74" s="34"/>
-      <c r="F74" s="34"/>
-      <c r="G74" s="35"/>
+      <c r="D74" s="35"/>
+      <c r="E74" s="35"/>
+      <c r="F74" s="35"/>
+      <c r="G74" s="36"/>
       <c r="H74" s="4"/>
       <c r="I74" s="5" t="s">
         <v>2</v>
@@ -2969,7 +2969,7 @@
       <c r="I90" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="J90" s="36" t="s">
+      <c r="J90" s="33" t="s">
         <v>144</v>
       </c>
       <c r="K90" s="25" t="s">
@@ -2989,7 +2989,7 @@
       <c r="I91" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="J91" s="36" t="s">
+      <c r="J91" s="33" t="s">
         <v>152</v>
       </c>
       <c r="K91" s="25"/>

--- a/WIP/Users/LinhNH/VEAZY_Database Design.xlsx
+++ b/WIP/Users/LinhNH/VEAZY_Database Design.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hoang Linh\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hoang Linh\Documents\FPT\SUMMER 2016\Đồ án\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9735"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9735" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="List database tables" sheetId="2" r:id="rId1"/>
-    <sheet name="Detail Design" sheetId="1" r:id="rId2"/>
+    <sheet name="Change History" sheetId="3" r:id="rId1"/>
+    <sheet name="List database tables" sheetId="2" r:id="rId2"/>
+    <sheet name="Detail Design" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -30,7 +31,7 @@
     <author>Hoang Linh</author>
   </authors>
   <commentList>
-    <comment ref="A104" authorId="0" shapeId="0">
+    <comment ref="C113" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -50,8 +51,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-khi đang review thì lưu question vào đâu?
-</t>
+Also use to determine if course is available yet</t>
         </r>
       </text>
     </comment>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="211">
   <si>
     <t>Collections</t>
   </si>
@@ -191,9 +191,6 @@
     <t>role</t>
   </si>
   <si>
-    <t>1:User | 2: Content Editor | 3: Content Manager | 4: Admin</t>
-  </si>
-  <si>
     <t>User address</t>
   </si>
   <si>
@@ -449,15 +446,9 @@
     <t>1: singular | 2: group</t>
   </si>
   <si>
-    <t>question_quantity</t>
-  </si>
-  <si>
     <t>This store question type. Group question contains multiple singular question</t>
   </si>
   <si>
-    <t>number of questions in content</t>
-  </si>
-  <si>
     <t>creator_id</t>
   </si>
   <si>
@@ -476,15 +467,6 @@
     <t>1: vocabulary | 2: grammar | 3: reading | 4: listening</t>
   </si>
   <si>
-    <t>*</t>
-  </si>
-  <si>
-    <t>shared_infomation</t>
-  </si>
-  <si>
-    <t>question_detail</t>
-  </si>
-  <si>
     <t>answers</t>
   </si>
   <si>
@@ -503,9 +485,6 @@
     <t>This field store type of question and answer type. Currently the system only support multiple choice type</t>
   </si>
   <si>
-    <t>This field store question general information</t>
-  </si>
-  <si>
     <t>false: answer is incorrect | true: answer is correct</t>
   </si>
   <si>
@@ -524,9 +503,6 @@
     <t>question_version</t>
   </si>
   <si>
-    <t>This collection store all information of version of a question</t>
-  </si>
-  <si>
     <t>is_updating</t>
   </si>
   <si>
@@ -551,10 +527,172 @@
     <t>lesson_version</t>
   </si>
   <si>
-    <t>course of lesson ID</t>
-  </si>
-  <si>
     <t>This store course ID which lesson belong to</t>
+  </si>
+  <si>
+    <t>course ID of lesson ID</t>
+  </si>
+  <si>
+    <t>article_category</t>
+  </si>
+  <si>
+    <t>ja_vi</t>
+  </si>
+  <si>
+    <t>vi_ja</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>article</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>Author</t>
+  </si>
+  <si>
+    <t>LinhNH</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>The first database design version</t>
+  </si>
+  <si>
+    <t>This collection store all information of lesson_version</t>
+  </si>
+  <si>
+    <t>lesson ID</t>
+  </si>
+  <si>
+    <t>lesson_id</t>
+  </si>
+  <si>
+    <t>version numerical order</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>lesson title</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>reviewer_id</t>
+  </si>
+  <si>
+    <t>ID of the creator</t>
+  </si>
+  <si>
+    <t>ID of the reviewer</t>
+  </si>
+  <si>
+    <t>This field store lesson id</t>
+  </si>
+  <si>
+    <t>This field store lesson version state.</t>
+  </si>
+  <si>
+    <t>1: published | 2: updating  | 3: reviewing</t>
+  </si>
+  <si>
+    <t>vocabulary</t>
+  </si>
+  <si>
+    <t>grammar</t>
+  </si>
+  <si>
+    <t>reading</t>
+  </si>
+  <si>
+    <t>listening</t>
+  </si>
+  <si>
+    <t>practice</t>
+  </si>
+  <si>
+    <t>This collection store all information of course</t>
+  </si>
+  <si>
+    <t>course_name</t>
+  </si>
+  <si>
+    <t>course index</t>
+  </si>
+  <si>
+    <t>course name</t>
+  </si>
+  <si>
+    <t>This field store course name.</t>
+  </si>
+  <si>
+    <t>It store create date of each course. It can not be changed</t>
+  </si>
+  <si>
+    <t>It store last update date of each course. It will be change when course update information.</t>
+  </si>
+  <si>
+    <t>It will have value if course is deleted</t>
+  </si>
+  <si>
+    <t>When course is created, this field is false. When course is deleted, this field is true.</t>
+  </si>
+  <si>
+    <t>This collection store all information of article</t>
+  </si>
+  <si>
+    <t>This field is create automatically by mongo database. It is article ID and each article has a special ID. It can not be changed.</t>
+  </si>
+  <si>
+    <t>It store create date of each article, It can not be changed</t>
+  </si>
+  <si>
+    <t>It store last update date of each article. It will be change when article update information.</t>
+  </si>
+  <si>
+    <t>It will have value if article is deleted</t>
+  </si>
+  <si>
+    <t>When article is created, this field is false. When article is deleted, this field is true.</t>
+  </si>
+  <si>
+    <t>content of article</t>
+  </si>
+  <si>
+    <t>This field store article content</t>
+  </si>
+  <si>
+    <t>This field store content html</t>
+  </si>
+  <si>
+    <t>1:Learner | 2: Content Editor | 3: Content Manager | 4: Admin</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>ID of each question of a group version</t>
+  </si>
+  <si>
+    <t>This collection store all information of article category</t>
+  </si>
+  <si>
+    <t>category name</t>
+  </si>
+  <si>
+    <t>category_name</t>
+  </si>
+  <si>
+    <t>This field store article category</t>
+  </si>
+  <si>
+    <t>This store course index which is used for ordering. Index = -1 =&gt; not available</t>
   </si>
 </sst>
 </file>
@@ -602,7 +740,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -633,8 +771,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -814,11 +970,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -916,9 +1087,11 @@
     <xf numFmtId="20" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -928,6 +1101,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1208,110 +1382,77 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C15"/>
+  <dimension ref="C4:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="21.7109375" customWidth="1"/>
+    <col min="4" max="4" width="35" customWidth="1"/>
+    <col min="5" max="5" width="46.42578125" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>160</v>
-      </c>
-      <c r="C2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B3">
+    <row r="4" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="37" t="s">
+        <v>162</v>
+      </c>
+      <c r="D5" s="37" t="s">
+        <v>163</v>
+      </c>
+      <c r="E5" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="37" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="33">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B6">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B7">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B8">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B9">
-        <v>7</v>
-      </c>
-      <c r="C9" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B10">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B11">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B13">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B14">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B15">
-        <v>13</v>
-      </c>
+      <c r="D6" s="33" t="s">
+        <v>164</v>
+      </c>
+      <c r="E6" s="33" t="s">
+        <v>166</v>
+      </c>
+      <c r="F6" s="36">
+        <v>42530</v>
+      </c>
+    </row>
+    <row r="7" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+    </row>
+    <row r="8" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+    </row>
+    <row r="9" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+    </row>
+    <row r="10" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+    </row>
+    <row r="11" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1319,11 +1460,140 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D5:E19"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="9.140625" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" customWidth="1"/>
+    <col min="5" max="5" width="48.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D6" s="34" t="s">
+        <v>152</v>
+      </c>
+      <c r="E6" s="34" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="7" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D7" s="33">
+        <v>1</v>
+      </c>
+      <c r="E7" s="33" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D8" s="33">
+        <v>2</v>
+      </c>
+      <c r="E8" s="33" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D9" s="33">
+        <v>3</v>
+      </c>
+      <c r="E9" s="33" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D10" s="33">
+        <v>4</v>
+      </c>
+      <c r="E10" s="33" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D11" s="33">
+        <v>5</v>
+      </c>
+      <c r="E11" s="33" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D12" s="33">
+        <v>6</v>
+      </c>
+      <c r="E12" s="33" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="13" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D13" s="33">
+        <v>7</v>
+      </c>
+      <c r="E13" s="33" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D14" s="33">
+        <v>8</v>
+      </c>
+      <c r="E14" s="33" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="15" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D15" s="33">
+        <v>9</v>
+      </c>
+      <c r="E15" s="33" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="16" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D16" s="41">
+        <v>10</v>
+      </c>
+      <c r="E16" s="41" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="17" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D17" s="41">
+        <v>11</v>
+      </c>
+      <c r="E17" s="41" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="18" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D18" s="41">
+        <v>12</v>
+      </c>
+      <c r="E18" s="41" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="19" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D19" s="35"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K104"/>
+  <dimension ref="A1:K133"/>
   <sheetViews>
-    <sheetView topLeftCell="A145" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C82" sqref="C82"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J76" sqref="J76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1348,13 +1618,13 @@
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="36"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="40"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5" t="s">
         <v>2</v>
@@ -1518,7 +1788,7 @@
         <v>13</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K10" s="8"/>
     </row>
@@ -1536,7 +1806,7 @@
         <v>13</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K11" s="8"/>
     </row>
@@ -1554,7 +1824,7 @@
         <v>28</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K12" s="8"/>
     </row>
@@ -1572,11 +1842,11 @@
         <v>13</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K13" s="8"/>
     </row>
-    <row r="14" spans="1:11" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="9"/>
       <c r="C14" s="2" t="s">
         <v>42</v>
@@ -1590,7 +1860,7 @@
         <v>27</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>43</v>
+        <v>203</v>
       </c>
       <c r="K14" s="8"/>
     </row>
@@ -1613,7 +1883,7 @@
     <row r="16" spans="1:11" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="9"/>
       <c r="C16" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -1621,13 +1891,13 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J16" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K16" s="8" t="s">
         <v>49</v>
-      </c>
-      <c r="K16" s="8" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -1695,13 +1965,13 @@
       <c r="G20" s="12"/>
       <c r="H20" s="12"/>
       <c r="I20" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="J20" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="K20" s="13" t="s">
         <v>46</v>
-      </c>
-      <c r="J20" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="K20" s="13" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -1712,13 +1982,13 @@
       <c r="B22" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C22" s="34" t="s">
+      <c r="C22" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="36"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="40"/>
       <c r="H22" s="4"/>
       <c r="I22" s="5" t="s">
         <v>2</v>
@@ -1732,7 +2002,7 @@
     </row>
     <row r="23" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C23" s="24"/>
       <c r="D23" s="24"/>
@@ -1743,7 +2013,7 @@
       <c r="I23" s="24"/>
       <c r="J23" s="24"/>
       <c r="K23" s="25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1765,13 +2035,13 @@
         <v>10</v>
       </c>
       <c r="K24" s="25" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="26"/>
       <c r="C25" s="27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D25" s="24"/>
       <c r="E25" s="24"/>
@@ -1782,16 +2052,16 @@
         <v>13</v>
       </c>
       <c r="J25" s="27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K25" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="26"/>
       <c r="C26" s="27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D26" s="24"/>
       <c r="E26" s="24"/>
@@ -1802,16 +2072,16 @@
         <v>13</v>
       </c>
       <c r="J26" s="27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K26" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="26"/>
       <c r="C27" s="27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D27" s="24"/>
       <c r="E27" s="24"/>
@@ -1822,16 +2092,16 @@
         <v>13</v>
       </c>
       <c r="J27" s="27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K27" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="26"/>
       <c r="C28" s="27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D28" s="24"/>
       <c r="E28" s="24"/>
@@ -1842,16 +2112,16 @@
         <v>27</v>
       </c>
       <c r="J28" s="27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K28" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="26"/>
       <c r="C29" s="27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D29" s="24"/>
       <c r="E29" s="24"/>
@@ -1859,10 +2129,10 @@
       <c r="G29" s="24"/>
       <c r="H29" s="24"/>
       <c r="I29" s="27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J29" s="27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K29" s="25"/>
     </row>
@@ -1881,7 +2151,7 @@
       </c>
       <c r="J30" s="24"/>
       <c r="K30" s="25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -1899,7 +2169,7 @@
       </c>
       <c r="J31" s="24"/>
       <c r="K31" s="25" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1917,7 +2187,7 @@
       </c>
       <c r="J32" s="24"/>
       <c r="K32" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="30" thickBot="1" x14ac:dyDescent="0.3">
@@ -1931,13 +2201,13 @@
       <c r="G33" s="30"/>
       <c r="H33" s="30"/>
       <c r="I33" s="29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J33" s="29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K33" s="31" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -1948,13 +2218,13 @@
       <c r="B35" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C35" s="34" t="s">
+      <c r="C35" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="D35" s="35"/>
-      <c r="E35" s="35"/>
-      <c r="F35" s="35"/>
-      <c r="G35" s="36"/>
+      <c r="D35" s="39"/>
+      <c r="E35" s="39"/>
+      <c r="F35" s="39"/>
+      <c r="G35" s="40"/>
       <c r="H35" s="4"/>
       <c r="I35" s="5" t="s">
         <v>2</v>
@@ -1968,7 +2238,7 @@
     </row>
     <row r="36" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C36" s="15"/>
       <c r="D36" s="15"/>
@@ -1979,7 +2249,7 @@
       <c r="I36" s="15"/>
       <c r="J36" s="15"/>
       <c r="K36" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2001,13 +2271,13 @@
         <v>10</v>
       </c>
       <c r="K37" s="16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="17"/>
       <c r="C38" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D38" s="15"/>
       <c r="E38" s="15"/>
@@ -2018,16 +2288,16 @@
         <v>27</v>
       </c>
       <c r="J38" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="K38" s="16" t="s">
         <v>73</v>
-      </c>
-      <c r="K38" s="16" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="17"/>
       <c r="C39" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D39" s="15"/>
       <c r="E39" s="15"/>
@@ -2038,16 +2308,16 @@
         <v>13</v>
       </c>
       <c r="J39" s="18" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="K39" s="16" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B40" s="17"/>
       <c r="C40" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D40" s="15"/>
       <c r="E40" s="15"/>
@@ -2058,16 +2328,16 @@
         <v>27</v>
       </c>
       <c r="J40" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="K40" s="16" t="s">
         <v>79</v>
-      </c>
-      <c r="K40" s="16" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B41" s="17"/>
       <c r="C41" s="18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D41" s="15"/>
       <c r="E41" s="15"/>
@@ -2078,16 +2348,16 @@
         <v>27</v>
       </c>
       <c r="J41" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K41" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B42" s="17"/>
       <c r="C42" s="18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D42" s="15"/>
       <c r="E42" s="15"/>
@@ -2095,13 +2365,13 @@
       <c r="G42" s="15"/>
       <c r="H42" s="15"/>
       <c r="I42" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J42" s="18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K42" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -2119,7 +2389,7 @@
       </c>
       <c r="J43" s="15"/>
       <c r="K43" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -2137,7 +2407,7 @@
       </c>
       <c r="J44" s="15"/>
       <c r="K44" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2155,7 +2425,7 @@
       </c>
       <c r="J45" s="15"/>
       <c r="K45" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="30" thickBot="1" x14ac:dyDescent="0.3">
@@ -2169,13 +2439,13 @@
       <c r="G46" s="21"/>
       <c r="H46" s="21"/>
       <c r="I46" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J46" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K46" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -2186,13 +2456,13 @@
       <c r="B48" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C48" s="34" t="s">
+      <c r="C48" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="D48" s="35"/>
-      <c r="E48" s="35"/>
-      <c r="F48" s="35"/>
-      <c r="G48" s="36"/>
+      <c r="D48" s="39"/>
+      <c r="E48" s="39"/>
+      <c r="F48" s="39"/>
+      <c r="G48" s="40"/>
       <c r="H48" s="4"/>
       <c r="I48" s="5" t="s">
         <v>2</v>
@@ -2206,7 +2476,7 @@
     </row>
     <row r="49" spans="1:11" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B49" s="23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C49" s="24"/>
       <c r="D49" s="24"/>
@@ -2217,7 +2487,7 @@
       <c r="I49" s="24"/>
       <c r="J49" s="24"/>
       <c r="K49" s="25" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2239,13 +2509,13 @@
         <v>10</v>
       </c>
       <c r="K50" s="25" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B51" s="26"/>
       <c r="C51" s="27" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D51" s="24"/>
       <c r="E51" s="24"/>
@@ -2256,81 +2526,81 @@
         <v>13</v>
       </c>
       <c r="J51" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="K51" s="25" t="s">
         <v>93</v>
-      </c>
-      <c r="K51" s="25" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B52" s="26"/>
-      <c r="C52" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="D52" s="15"/>
-      <c r="E52" s="15"/>
-      <c r="F52" s="15"/>
-      <c r="G52" s="15"/>
-      <c r="H52" s="15"/>
-      <c r="I52" s="18" t="s">
+      <c r="C52" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="D52" s="24"/>
+      <c r="E52" s="24"/>
+      <c r="F52" s="24"/>
+      <c r="G52" s="24"/>
+      <c r="H52" s="24"/>
+      <c r="I52" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="J52" s="18" t="s">
-        <v>163</v>
-      </c>
-      <c r="K52" s="16" t="s">
-        <v>164</v>
+      <c r="J52" s="27" t="s">
+        <v>156</v>
+      </c>
+      <c r="K52" s="25" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B53" s="26"/>
       <c r="C53" s="27" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D53" s="24" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E53" s="24"/>
       <c r="F53" s="24"/>
       <c r="G53" s="24"/>
       <c r="H53" s="24"/>
       <c r="I53" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="J53" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="J53" s="27" t="s">
-        <v>97</v>
-      </c>
       <c r="K53" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="54" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B54" s="26"/>
       <c r="C54" s="27" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D54" s="24" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E54" s="24"/>
       <c r="F54" s="24"/>
       <c r="G54" s="24"/>
       <c r="H54" s="24"/>
       <c r="I54" s="27" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J54" s="27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K54" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B55" s="26"/>
       <c r="C55" s="27"/>
       <c r="D55" s="24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E55" s="24"/>
       <c r="F55" s="24"/>
@@ -2340,17 +2610,17 @@
         <v>27</v>
       </c>
       <c r="J55" s="27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K55" s="25" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B56" s="26"/>
       <c r="C56" s="27"/>
       <c r="D56" s="24" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E56" s="24"/>
       <c r="F56" s="24"/>
@@ -2360,16 +2630,16 @@
         <v>13</v>
       </c>
       <c r="J56" s="27" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K56" s="25" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B57" s="26"/>
       <c r="C57" s="27" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D57" s="24"/>
       <c r="E57" s="24"/>
@@ -2377,10 +2647,10 @@
       <c r="G57" s="24"/>
       <c r="H57" s="24"/>
       <c r="I57" s="27" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J57" s="24" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K57" s="25"/>
     </row>
@@ -2399,7 +2669,7 @@
       </c>
       <c r="J58" s="24"/>
       <c r="K58" s="25" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -2417,7 +2687,7 @@
       </c>
       <c r="J59" s="24"/>
       <c r="K59" s="25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2435,7 +2705,7 @@
       </c>
       <c r="J60" s="24"/>
       <c r="K60" s="25" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="61" spans="1:11" ht="30" thickBot="1" x14ac:dyDescent="0.3">
@@ -2449,13 +2719,13 @@
       <c r="G61" s="30"/>
       <c r="H61" s="30"/>
       <c r="I61" s="29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J61" s="29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K61" s="31" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -2466,13 +2736,13 @@
       <c r="B63" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C63" s="34" t="s">
+      <c r="C63" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="D63" s="35"/>
-      <c r="E63" s="35"/>
-      <c r="F63" s="35"/>
-      <c r="G63" s="36"/>
+      <c r="D63" s="39"/>
+      <c r="E63" s="39"/>
+      <c r="F63" s="39"/>
+      <c r="G63" s="40"/>
       <c r="H63" s="4"/>
       <c r="I63" s="5" t="s">
         <v>2</v>
@@ -2486,7 +2756,7 @@
     </row>
     <row r="64" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B64" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C64" s="15"/>
       <c r="D64" s="15"/>
@@ -2497,10 +2767,10 @@
       <c r="I64" s="15"/>
       <c r="J64" s="15"/>
       <c r="K64" s="16" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="65" spans="2:11" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B65" s="17"/>
       <c r="C65" s="18" t="s">
         <v>7</v>
@@ -2519,13 +2789,13 @@
         <v>10</v>
       </c>
       <c r="K65" s="16" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="66" spans="2:11" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B66" s="17"/>
       <c r="C66" s="18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D66" s="15"/>
       <c r="E66" s="15"/>
@@ -2536,16 +2806,16 @@
         <v>13</v>
       </c>
       <c r="J66" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="K66" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="K66" s="16" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="67" spans="2:11" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B67" s="17"/>
       <c r="C67" s="18" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="D67" s="15"/>
       <c r="E67" s="15"/>
@@ -2553,17 +2823,17 @@
       <c r="G67" s="15"/>
       <c r="H67" s="15"/>
       <c r="I67" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J67" s="32" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="K67" s="16"/>
     </row>
-    <row r="68" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B68" s="17"/>
       <c r="C68" s="18" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D68" s="15"/>
       <c r="E68" s="15"/>
@@ -2574,13 +2844,13 @@
         <v>13</v>
       </c>
       <c r="J68" s="18" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="K68" s="16" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="69" spans="2:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B69" s="17"/>
       <c r="C69" s="18" t="s">
         <v>29</v>
@@ -2595,10 +2865,10 @@
       </c>
       <c r="J69" s="15"/>
       <c r="K69" s="16" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="70" spans="2:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B70" s="17"/>
       <c r="C70" s="18" t="s">
         <v>31</v>
@@ -2613,10 +2883,10 @@
       </c>
       <c r="J70" s="15"/>
       <c r="K70" s="16" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="71" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B71" s="17"/>
       <c r="C71" s="18" t="s">
         <v>33</v>
@@ -2631,10 +2901,10 @@
       </c>
       <c r="J71" s="15"/>
       <c r="K71" s="16" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="72" spans="2:11" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B72" s="19"/>
       <c r="C72" s="20" t="s">
         <v>35</v>
@@ -2645,381 +2915,1103 @@
       <c r="G72" s="21"/>
       <c r="H72" s="21"/>
       <c r="I72" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J72" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K72" s="22" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="73" spans="2:11" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B73" s="17"/>
+      <c r="C73" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="D73" s="15"/>
+      <c r="E73" s="15"/>
+      <c r="F73" s="15"/>
+      <c r="G73" s="15"/>
+      <c r="H73" s="18"/>
+      <c r="I73" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="J73" s="32" t="s">
+        <v>138</v>
+      </c>
+      <c r="K73" s="16" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="74" spans="2:11" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B74" s="17"/>
+      <c r="C74" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="D74" s="15"/>
+      <c r="E74" s="15"/>
+      <c r="F74" s="15"/>
+      <c r="G74" s="15"/>
+      <c r="H74" s="15"/>
+      <c r="I74" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="J74" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="K74" s="16" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="75" spans="2:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B75" s="17"/>
+      <c r="C75" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="D75" s="15"/>
+      <c r="E75" s="18"/>
+      <c r="F75" s="15"/>
+      <c r="G75" s="15"/>
+      <c r="H75" s="15"/>
+      <c r="I75" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="J75" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="K75" s="16" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="76" spans="2:11" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B76" s="17"/>
+      <c r="C76" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="D76" s="15"/>
+      <c r="E76" s="15"/>
+      <c r="F76" s="15"/>
+      <c r="G76" s="15"/>
+      <c r="H76" s="15"/>
+      <c r="I76" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="J76" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="K76" s="16" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="77" spans="2:11" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B77" s="17"/>
+      <c r="C77" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="D77" s="15"/>
+      <c r="E77" s="15"/>
+      <c r="F77" s="15"/>
+      <c r="G77" s="15"/>
+      <c r="H77" s="15"/>
+      <c r="I77" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="J77" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="K77" s="16" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="78" spans="2:11" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B78" s="17"/>
+      <c r="C78" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="D78" s="15"/>
+      <c r="E78" s="15"/>
+      <c r="F78" s="15"/>
+      <c r="G78" s="15"/>
+      <c r="H78" s="15"/>
+      <c r="I78" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="J78" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="K78" s="16"/>
+    </row>
+    <row r="79" spans="2:11" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B79" s="17"/>
+      <c r="C79" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="D79" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="E79" s="15"/>
+      <c r="F79" s="15"/>
+      <c r="G79" s="15"/>
+      <c r="H79" s="15"/>
+      <c r="I79" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="J79" s="18"/>
+      <c r="K79" s="16"/>
+    </row>
+    <row r="80" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B80" s="17"/>
+      <c r="C80" s="15"/>
+      <c r="D80" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="E80" s="15"/>
+      <c r="F80" s="15"/>
+      <c r="G80" s="15"/>
+      <c r="H80" s="15"/>
+      <c r="I80" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="J80" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="K80" s="16"/>
+    </row>
+    <row r="81" spans="2:11" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B81" s="17"/>
+      <c r="C81" s="15"/>
+      <c r="D81" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="E81" s="15"/>
+      <c r="F81" s="15"/>
+      <c r="G81" s="15"/>
+      <c r="H81" s="15"/>
+      <c r="I81" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="J81" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="K81" s="16"/>
+    </row>
+    <row r="82" spans="2:11" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B82" s="17"/>
+      <c r="C82" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="D82" s="15"/>
+      <c r="E82" s="15"/>
+      <c r="F82" s="15"/>
+      <c r="G82" s="15"/>
+      <c r="H82" s="15"/>
+      <c r="I82" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="J82" s="32" t="s">
+        <v>138</v>
+      </c>
+      <c r="K82" s="16" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="83" spans="2:11" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B83" s="17"/>
+      <c r="C83" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D83" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="E83" s="15"/>
+      <c r="F83" s="15"/>
+      <c r="G83" s="15"/>
+      <c r="H83" s="15"/>
+      <c r="I83" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="J83" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="K83" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="84" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B84" s="17"/>
+      <c r="C84" s="18"/>
+      <c r="D84" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="E84" s="15"/>
+      <c r="F84" s="15"/>
+      <c r="G84" s="15"/>
+      <c r="H84" s="15"/>
+      <c r="I84" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="J84" s="18"/>
+      <c r="K84" s="16" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="85" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B85" s="17"/>
+      <c r="C85" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="D85" s="15"/>
+      <c r="E85" s="15"/>
+      <c r="F85" s="15"/>
+      <c r="G85" s="15"/>
+      <c r="H85" s="15"/>
+      <c r="I85" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="J85" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="K85" s="16"/>
+    </row>
+    <row r="86" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B86" s="17"/>
+      <c r="C86" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="D86" s="15"/>
+      <c r="E86" s="15"/>
+      <c r="F86" s="15"/>
+      <c r="G86" s="15"/>
+      <c r="H86" s="15"/>
+      <c r="I86" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="J86" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="K86" s="16"/>
+    </row>
+    <row r="87" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="88" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B88" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C88" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="D88" s="39"/>
+      <c r="E88" s="39"/>
+      <c r="F88" s="39"/>
+      <c r="G88" s="40"/>
+      <c r="H88" s="4"/>
+      <c r="I88" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="J88" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="K88" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B89" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="C89" s="15"/>
+      <c r="D89" s="15"/>
+      <c r="E89" s="15"/>
+      <c r="F89" s="15"/>
+      <c r="G89" s="15"/>
+      <c r="H89" s="15"/>
+      <c r="I89" s="15"/>
+      <c r="J89" s="15"/>
+      <c r="K89" s="16" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="90" spans="2:11" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B90" s="17"/>
+      <c r="C90" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D90" s="15"/>
+      <c r="E90" s="15"/>
+      <c r="F90" s="15"/>
+      <c r="G90" s="15"/>
+      <c r="H90" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="I90" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="J90" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="K90" s="16" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="73" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="74" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74">
-        <v>6</v>
-      </c>
-      <c r="B74" s="3" t="s">
+    <row r="91" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B91" s="17"/>
+      <c r="C91" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="D91" s="15"/>
+      <c r="E91" s="15"/>
+      <c r="F91" s="15"/>
+      <c r="G91" s="15"/>
+      <c r="H91" s="15"/>
+      <c r="I91" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="J91" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="K91" s="16" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="92" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B92" s="17"/>
+      <c r="C92" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="D92" s="15"/>
+      <c r="E92" s="15"/>
+      <c r="F92" s="15"/>
+      <c r="G92" s="15"/>
+      <c r="H92" s="15"/>
+      <c r="I92" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="J92" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="K92" s="16"/>
+    </row>
+    <row r="93" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B93" s="17"/>
+      <c r="C93" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="D93" s="15"/>
+      <c r="E93" s="15"/>
+      <c r="F93" s="15"/>
+      <c r="G93" s="15"/>
+      <c r="H93" s="15"/>
+      <c r="I93" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="J93" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="K93" s="16"/>
+    </row>
+    <row r="94" spans="2:11" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B94" s="17"/>
+      <c r="C94" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="D94" s="15"/>
+      <c r="E94" s="15"/>
+      <c r="F94" s="15"/>
+      <c r="G94" s="15"/>
+      <c r="H94" s="15"/>
+      <c r="I94" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="J94" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="K94" s="16" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="95" spans="2:11" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B95" s="17"/>
+      <c r="C95" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="D95" s="15"/>
+      <c r="E95" s="15"/>
+      <c r="F95" s="15"/>
+      <c r="G95" s="15"/>
+      <c r="H95" s="15"/>
+      <c r="I95" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="J95" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="K95" s="16"/>
+    </row>
+    <row r="96" spans="2:11" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B96" s="17"/>
+      <c r="C96" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="D96" s="15"/>
+      <c r="E96" s="15"/>
+      <c r="F96" s="15"/>
+      <c r="G96" s="15"/>
+      <c r="H96" s="15"/>
+      <c r="I96" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="J96" s="18"/>
+      <c r="K96" s="16"/>
+    </row>
+    <row r="97" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B97" s="17"/>
+      <c r="C97" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="D97" s="15"/>
+      <c r="E97" s="15"/>
+      <c r="F97" s="15"/>
+      <c r="G97" s="15"/>
+      <c r="H97" s="15"/>
+      <c r="I97" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="J97" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="K97" s="16"/>
+    </row>
+    <row r="98" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B98" s="17"/>
+      <c r="C98" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="D98" s="15"/>
+      <c r="E98" s="15"/>
+      <c r="F98" s="15"/>
+      <c r="G98" s="15"/>
+      <c r="H98" s="15"/>
+      <c r="I98" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="J98" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="K98" s="16"/>
+    </row>
+    <row r="99" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B99" s="17"/>
+      <c r="C99" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="D99" s="15"/>
+      <c r="E99" s="15"/>
+      <c r="F99" s="15"/>
+      <c r="G99" s="15"/>
+      <c r="H99" s="15"/>
+      <c r="I99" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="J99" s="18"/>
+      <c r="K99" s="16" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="100" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B100" s="17"/>
+      <c r="C100" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="D100" s="15"/>
+      <c r="E100" s="15"/>
+      <c r="F100" s="15"/>
+      <c r="G100" s="15"/>
+      <c r="H100" s="15"/>
+      <c r="I100" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="J100" s="18"/>
+      <c r="K100" s="16"/>
+    </row>
+    <row r="101" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B101" s="17"/>
+      <c r="C101" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="D101" s="15"/>
+      <c r="E101" s="15"/>
+      <c r="F101" s="15"/>
+      <c r="G101" s="15"/>
+      <c r="H101" s="15"/>
+      <c r="I101" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="J101" s="18"/>
+      <c r="K101" s="16"/>
+    </row>
+    <row r="102" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B102" s="17"/>
+      <c r="C102" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="D102" s="15"/>
+      <c r="E102" s="15"/>
+      <c r="F102" s="15"/>
+      <c r="G102" s="15"/>
+      <c r="H102" s="15"/>
+      <c r="I102" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="J102" s="18"/>
+      <c r="K102" s="16"/>
+    </row>
+    <row r="103" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B103" s="17"/>
+      <c r="C103" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="D103" s="15"/>
+      <c r="E103" s="15"/>
+      <c r="F103" s="15"/>
+      <c r="G103" s="15"/>
+      <c r="H103" s="15"/>
+      <c r="I103" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="J103" s="18"/>
+      <c r="K103" s="16"/>
+    </row>
+    <row r="104" spans="2:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B104" s="17"/>
+      <c r="C104" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D104" s="15"/>
+      <c r="E104" s="15"/>
+      <c r="F104" s="15"/>
+      <c r="G104" s="15"/>
+      <c r="H104" s="15"/>
+      <c r="I104" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="J104" s="15"/>
+      <c r="K104" s="16" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="105" spans="2:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B105" s="17"/>
+      <c r="C105" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D105" s="15"/>
+      <c r="E105" s="15"/>
+      <c r="F105" s="15"/>
+      <c r="G105" s="15"/>
+      <c r="H105" s="15"/>
+      <c r="I105" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="J105" s="15"/>
+      <c r="K105" s="16" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="106" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B106" s="17"/>
+      <c r="C106" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D106" s="15"/>
+      <c r="E106" s="15"/>
+      <c r="F106" s="15"/>
+      <c r="G106" s="15"/>
+      <c r="H106" s="15"/>
+      <c r="I106" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="J106" s="15"/>
+      <c r="K106" s="16" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="107" spans="2:11" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B107" s="19"/>
+      <c r="C107" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D107" s="21"/>
+      <c r="E107" s="21"/>
+      <c r="F107" s="21"/>
+      <c r="G107" s="21"/>
+      <c r="H107" s="21"/>
+      <c r="I107" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="J107" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K107" s="22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="108" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="109" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B109" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C74" s="34" t="s">
+      <c r="C109" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="D74" s="35"/>
-      <c r="E74" s="35"/>
-      <c r="F74" s="35"/>
-      <c r="G74" s="36"/>
-      <c r="H74" s="4"/>
-      <c r="I74" s="5" t="s">
+      <c r="D109" s="39"/>
+      <c r="E109" s="39"/>
+      <c r="F109" s="39"/>
+      <c r="G109" s="40"/>
+      <c r="H109" s="4"/>
+      <c r="I109" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="J74" s="5" t="s">
+      <c r="J109" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="K74" s="6" t="s">
+      <c r="K109" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="23" t="s">
-        <v>153</v>
-      </c>
-      <c r="C75" s="24"/>
-      <c r="D75" s="24"/>
-      <c r="E75" s="24"/>
-      <c r="F75" s="24"/>
-      <c r="G75" s="24"/>
-      <c r="H75" s="24"/>
-      <c r="I75" s="24"/>
-      <c r="J75" s="24"/>
-      <c r="K75" s="25" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="26"/>
-      <c r="C76" s="27" t="s">
+    <row r="110" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B110" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="C110" s="24"/>
+      <c r="D110" s="24"/>
+      <c r="E110" s="24"/>
+      <c r="F110" s="24"/>
+      <c r="G110" s="24"/>
+      <c r="H110" s="24"/>
+      <c r="I110" s="24"/>
+      <c r="J110" s="24"/>
+      <c r="K110" s="25" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="111" spans="2:11" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B111" s="26"/>
+      <c r="C111" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="D76" s="24"/>
-      <c r="E76" s="24"/>
-      <c r="F76" s="24"/>
-      <c r="G76" s="24"/>
-      <c r="H76" s="27" t="s">
+      <c r="D111" s="24"/>
+      <c r="E111" s="24"/>
+      <c r="F111" s="24"/>
+      <c r="G111" s="24"/>
+      <c r="H111" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="I76" s="27" t="s">
+      <c r="I111" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="J76" s="27" t="s">
+      <c r="J111" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="K76" s="25" t="s">
+      <c r="K111" s="25" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="77" spans="1:11" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="26"/>
-      <c r="C77" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="D77" s="24"/>
-      <c r="E77" s="24"/>
-      <c r="F77" s="24"/>
-      <c r="G77" s="24"/>
-      <c r="H77" s="24"/>
-      <c r="I77" s="27" t="s">
+    <row r="112" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B112" s="26"/>
+      <c r="C112" s="27" t="s">
+        <v>186</v>
+      </c>
+      <c r="D112" s="24"/>
+      <c r="E112" s="24"/>
+      <c r="F112" s="24"/>
+      <c r="G112" s="24"/>
+      <c r="H112" s="24"/>
+      <c r="I112" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="J77" s="27" t="s">
-        <v>122</v>
-      </c>
-      <c r="K77" s="25" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="26"/>
-      <c r="C78" s="27" t="s">
-        <v>153</v>
-      </c>
-      <c r="D78" s="24"/>
-      <c r="E78" s="24"/>
-      <c r="F78" s="24"/>
-      <c r="G78" s="24"/>
-      <c r="H78" s="24"/>
-      <c r="I78" s="27" t="s">
+      <c r="J112" s="27" t="s">
+        <v>188</v>
+      </c>
+      <c r="K112" s="25" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="113" spans="2:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B113" s="26"/>
+      <c r="C113" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="D113" s="24"/>
+      <c r="E113" s="24"/>
+      <c r="F113" s="24"/>
+      <c r="G113" s="24"/>
+      <c r="H113" s="24"/>
+      <c r="I113" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="J78" s="27" t="s">
+      <c r="J113" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="K113" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="114" spans="2:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B114" s="26"/>
+      <c r="C114" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="D114" s="24"/>
+      <c r="E114" s="24"/>
+      <c r="F114" s="24"/>
+      <c r="G114" s="24"/>
+      <c r="H114" s="24"/>
+      <c r="I114" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="J114" s="24"/>
+      <c r="K114" s="25" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="115" spans="2:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B115" s="26"/>
+      <c r="C115" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="D115" s="24"/>
+      <c r="E115" s="24"/>
+      <c r="F115" s="24"/>
+      <c r="G115" s="24"/>
+      <c r="H115" s="24"/>
+      <c r="I115" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="J115" s="24"/>
+      <c r="K115" s="25" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="116" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B116" s="26"/>
+      <c r="C116" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="D116" s="24"/>
+      <c r="E116" s="24"/>
+      <c r="F116" s="24"/>
+      <c r="G116" s="24"/>
+      <c r="H116" s="24"/>
+      <c r="I116" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="J116" s="24"/>
+      <c r="K116" s="25" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="117" spans="2:11" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B117" s="28"/>
+      <c r="C117" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="D117" s="30"/>
+      <c r="E117" s="30"/>
+      <c r="F117" s="30"/>
+      <c r="G117" s="30"/>
+      <c r="H117" s="30"/>
+      <c r="I117" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="J117" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="K117" s="31" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="118" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="119" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B119" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C119" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="D119" s="39"/>
+      <c r="E119" s="39"/>
+      <c r="F119" s="39"/>
+      <c r="G119" s="40"/>
+      <c r="H119" s="4"/>
+      <c r="I119" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="J119" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="K119" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B120" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="C120" s="15"/>
+      <c r="D120" s="15"/>
+      <c r="E120" s="15"/>
+      <c r="F120" s="15"/>
+      <c r="G120" s="15"/>
+      <c r="H120" s="15"/>
+      <c r="I120" s="15"/>
+      <c r="J120" s="15"/>
+      <c r="K120" s="16" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="121" spans="2:11" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B121" s="17"/>
+      <c r="C121" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D121" s="15"/>
+      <c r="E121" s="15"/>
+      <c r="F121" s="15"/>
+      <c r="G121" s="15"/>
+      <c r="H121" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="I121" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="J121" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="K121" s="16" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="122" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B122" s="17"/>
+      <c r="C122" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D122" s="15"/>
+      <c r="E122" s="15"/>
+      <c r="F122" s="15"/>
+      <c r="G122" s="15"/>
+      <c r="H122" s="15"/>
+      <c r="I122" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="J122" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="K122" s="16" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="123" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B123" s="17"/>
+      <c r="C123" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="D123" s="15"/>
+      <c r="E123" s="15"/>
+      <c r="F123" s="15"/>
+      <c r="G123" s="15"/>
+      <c r="H123" s="15"/>
+      <c r="I123" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="J123" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="K123" s="16" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="124" spans="2:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B124" s="17"/>
+      <c r="C124" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D124" s="15"/>
+      <c r="E124" s="15"/>
+      <c r="F124" s="15"/>
+      <c r="G124" s="15"/>
+      <c r="H124" s="15"/>
+      <c r="I124" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="J124" s="15"/>
+      <c r="K124" s="16" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="125" spans="2:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B125" s="17"/>
+      <c r="C125" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D125" s="15"/>
+      <c r="E125" s="15"/>
+      <c r="F125" s="15"/>
+      <c r="G125" s="15"/>
+      <c r="H125" s="15"/>
+      <c r="I125" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="J125" s="15"/>
+      <c r="K125" s="16" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="126" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B126" s="17"/>
+      <c r="C126" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D126" s="15"/>
+      <c r="E126" s="15"/>
+      <c r="F126" s="15"/>
+      <c r="G126" s="15"/>
+      <c r="H126" s="15"/>
+      <c r="I126" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="J126" s="15"/>
+      <c r="K126" s="16" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="127" spans="2:11" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B127" s="19"/>
+      <c r="C127" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D127" s="21"/>
+      <c r="E127" s="21"/>
+      <c r="F127" s="21"/>
+      <c r="G127" s="21"/>
+      <c r="H127" s="21"/>
+      <c r="I127" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="J127" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K127" s="22" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="128" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="129" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B129" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C129" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="D129" s="39"/>
+      <c r="E129" s="39"/>
+      <c r="F129" s="39"/>
+      <c r="G129" s="40"/>
+      <c r="H129" s="4"/>
+      <c r="I129" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="J129" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="K129" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="130" spans="2:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B130" s="23" t="s">
         <v>157</v>
       </c>
-      <c r="K78" s="25" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="26"/>
-      <c r="C79" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="D79" s="24"/>
-      <c r="E79" s="27"/>
-      <c r="F79" s="24"/>
-      <c r="G79" s="24"/>
-      <c r="H79" s="24"/>
-      <c r="I79" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="J79" s="27" t="s">
-        <v>128</v>
-      </c>
-      <c r="K79" s="25" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="26"/>
-      <c r="C80" s="27" t="s">
-        <v>129</v>
-      </c>
-      <c r="D80" s="24"/>
-      <c r="E80" s="24"/>
-      <c r="F80" s="24"/>
-      <c r="G80" s="24"/>
-      <c r="H80" s="24"/>
-      <c r="I80" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="J80" s="27"/>
-      <c r="K80" s="25" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="81" spans="2:11" ht="30" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="26"/>
-      <c r="C81" s="27" t="s">
-        <v>125</v>
-      </c>
-      <c r="D81" s="24"/>
-      <c r="E81" s="24"/>
-      <c r="F81" s="24"/>
-      <c r="G81" s="24"/>
-      <c r="H81" s="24"/>
-      <c r="I81" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="J81" s="27" t="s">
-        <v>137</v>
-      </c>
-      <c r="K81" s="25" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="82" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="26"/>
-      <c r="C82" s="27"/>
-      <c r="D82" s="24"/>
-      <c r="E82" s="24"/>
-      <c r="F82" s="24"/>
-      <c r="G82" s="24"/>
-      <c r="H82" s="24"/>
-      <c r="I82" s="27"/>
-      <c r="J82" s="27"/>
-      <c r="K82" s="25"/>
-    </row>
-    <row r="83" spans="2:11" ht="30" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="26"/>
-      <c r="C83" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="D83" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="E83" s="24"/>
-      <c r="F83" s="24"/>
-      <c r="G83" s="24"/>
-      <c r="H83" s="24"/>
-      <c r="I83" s="27" t="s">
-        <v>126</v>
-      </c>
-      <c r="J83" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="K83" s="25" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="84" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="26"/>
-      <c r="C84" s="27"/>
-      <c r="D84" s="24" t="s">
-        <v>139</v>
-      </c>
-      <c r="E84" s="24"/>
-      <c r="F84" s="24"/>
-      <c r="G84" s="24"/>
-      <c r="H84" s="24"/>
-      <c r="I84" s="27" t="s">
+      <c r="C130" s="24"/>
+      <c r="D130" s="24"/>
+      <c r="E130" s="24"/>
+      <c r="F130" s="24"/>
+      <c r="G130" s="24"/>
+      <c r="H130" s="24"/>
+      <c r="I130" s="24"/>
+      <c r="J130" s="24"/>
+      <c r="K130" s="25" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="131" spans="2:11" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B131" s="26"/>
+      <c r="C131" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="D131" s="24"/>
+      <c r="E131" s="24"/>
+      <c r="F131" s="24"/>
+      <c r="G131" s="24"/>
+      <c r="H131" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="I131" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="J131" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="K131" s="25" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="132" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B132" s="26"/>
+      <c r="C132" s="27" t="s">
+        <v>208</v>
+      </c>
+      <c r="D132" s="24"/>
+      <c r="E132" s="24"/>
+      <c r="F132" s="24"/>
+      <c r="G132" s="24"/>
+      <c r="H132" s="24"/>
+      <c r="I132" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="J84" s="27"/>
-      <c r="K84" s="25" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="85" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="26"/>
-      <c r="C85" s="27"/>
-      <c r="D85" s="24" t="s">
-        <v>140</v>
-      </c>
-      <c r="E85" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="F85" s="24"/>
-      <c r="G85" s="24"/>
-      <c r="H85" s="24"/>
-      <c r="I85" s="27" t="s">
-        <v>126</v>
-      </c>
-      <c r="J85" s="27"/>
-      <c r="K85" s="25"/>
-    </row>
-    <row r="86" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B86" s="26"/>
-      <c r="C86" s="27"/>
-      <c r="D86" s="24"/>
-      <c r="E86" s="24" t="s">
-        <v>110</v>
-      </c>
-      <c r="F86" s="24"/>
-      <c r="G86" s="24"/>
-      <c r="H86" s="24"/>
-      <c r="I86" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="J86" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="K86" s="25"/>
-    </row>
-    <row r="87" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B87" s="26"/>
-      <c r="C87" s="27"/>
-      <c r="D87" s="24"/>
-      <c r="E87" s="24" t="s">
-        <v>141</v>
-      </c>
-      <c r="F87" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="G87" s="24"/>
-      <c r="H87" s="24"/>
-      <c r="I87" s="27"/>
-      <c r="J87" s="27"/>
-      <c r="K87" s="25"/>
-    </row>
-    <row r="88" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B88" s="26"/>
-      <c r="C88" s="27"/>
-      <c r="D88" s="24"/>
-      <c r="E88" s="24"/>
-      <c r="F88" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="G88" s="24"/>
-      <c r="H88" s="24"/>
-      <c r="I88" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="J88" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="K88" s="25"/>
-    </row>
-    <row r="89" spans="2:11" ht="30" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B89" s="26"/>
-      <c r="C89" s="27"/>
-      <c r="D89" s="24"/>
-      <c r="E89" s="24"/>
-      <c r="F89" s="24" t="s">
-        <v>143</v>
-      </c>
-      <c r="G89" s="24"/>
-      <c r="H89" s="24"/>
-      <c r="I89" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="J89" s="27" t="s">
-        <v>148</v>
-      </c>
-      <c r="K89" s="25"/>
-    </row>
-    <row r="90" spans="2:11" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B90" s="26"/>
-      <c r="C90" s="27"/>
-      <c r="D90" s="24"/>
-      <c r="E90" s="24" t="s">
-        <v>145</v>
-      </c>
-      <c r="F90" s="24"/>
-      <c r="G90" s="24"/>
-      <c r="H90" s="24"/>
-      <c r="I90" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="J90" s="33" t="s">
-        <v>144</v>
-      </c>
-      <c r="K90" s="25" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="91" spans="2:11" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B91" s="26"/>
-      <c r="C91" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="D91" s="24"/>
-      <c r="E91" s="24"/>
-      <c r="F91" s="24"/>
-      <c r="G91" s="24"/>
-      <c r="H91" s="24"/>
-      <c r="I91" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="J91" s="33" t="s">
-        <v>152</v>
-      </c>
-      <c r="K91" s="25"/>
-    </row>
-    <row r="92" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B92" s="26"/>
-      <c r="C92" s="27" t="s">
-        <v>135</v>
-      </c>
-      <c r="D92" s="24"/>
-      <c r="E92" s="24"/>
-      <c r="F92" s="24"/>
-      <c r="G92" s="24"/>
-      <c r="H92" s="24"/>
-      <c r="I92" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="J92" s="27" t="s">
-        <v>136</v>
-      </c>
-      <c r="K92" s="25"/>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>138</v>
+      <c r="J132" s="27" t="s">
+        <v>207</v>
+      </c>
+      <c r="K132" s="25" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="133" spans="2:11" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B133" s="28"/>
+      <c r="C133" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="D133" s="30"/>
+      <c r="E133" s="30"/>
+      <c r="F133" s="30"/>
+      <c r="G133" s="30"/>
+      <c r="H133" s="30"/>
+      <c r="I133" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="J133" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="K133" s="31" t="s">
+        <v>199</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="C74:G74"/>
+  <mergeCells count="9">
+    <mergeCell ref="C129:G129"/>
+    <mergeCell ref="C88:G88"/>
+    <mergeCell ref="C109:G109"/>
+    <mergeCell ref="C119:G119"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="C22:G22"/>
     <mergeCell ref="C35:G35"/>
